--- a/xlsx/杰瑞·布朗_intext.xlsx
+++ b/xlsx/杰瑞·布朗_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>杰瑞·布朗</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>加利福尼亞州州長</t>
+    <t>加利福尼亚州州长</t>
   </si>
   <si>
     <t>政策_政策_加州_杰瑞·布朗</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%AB%BE%C2%B7%E5%8F%B2%E7%93%A6%E8%BE%9B%E6%A0%BC</t>
   </si>
   <si>
-    <t>阿諾·史瓦辛格</t>
+    <t>阿诺·史瓦辛格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%86%E7%B4%8D%C2%B7%E9%9B%B7%E6%A0%B9</t>
   </si>
   <si>
-    <t>隆納·雷根</t>
+    <t>隆纳·雷根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -101,15 +101,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
   </si>
   <si>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E5%93%88%E9%87%91</t>
   </si>
   <si>
-    <t>湯姆·哈金</t>
+    <t>汤姆·哈金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E6%8B%89%E7%BD%97%E5%A5%87</t>
@@ -167,13 +164,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91%C2%B7%E9%BA%A5%E5%8D%A1%E9%8C%AB</t>
   </si>
   <si>
-    <t>尤金·麥卡錫</t>
+    <t>尤金·麦卡锡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -197,19 +194,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%9D%9C%E5%85%8B</t>
   </si>
   <si>
-    <t>大衛·杜克</t>
+    <t>大卫·杜克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E8%B2%BB%E9%87%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>傑克·費里爾</t>
+    <t>杰克·费里尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E7%B1%8D</t>
   </si>
   <si>
-    <t>無黨籍</t>
+    <t>无党籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%C2%B7%E4%BD%A9%E7%BD%97</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1055,7 +1052,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
@@ -1081,10 +1078,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1110,10 +1107,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1139,10 +1136,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1168,10 +1165,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -1197,10 +1194,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1226,10 +1223,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1255,10 +1252,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1284,10 +1281,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1313,10 +1310,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1342,10 +1339,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1371,10 +1368,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1400,10 +1397,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1429,10 +1426,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1458,10 +1455,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1487,10 +1484,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1516,10 +1513,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1545,10 +1542,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1574,10 +1571,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1603,10 +1600,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1632,10 +1629,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1661,10 +1658,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1690,10 +1687,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1719,10 +1716,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1748,10 +1745,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1777,10 +1774,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1806,10 +1803,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1835,10 +1832,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1864,10 +1861,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -1893,10 +1890,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
